--- a/results/new_cu_diffgoal_path_jgr/15x15/new_cu_diffgoal_path_jgr_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal_path_jgr/15x15/new_cu_diffgoal_path_jgr_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.03658636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03658636</v>
+        <v>2.46580998</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4658143</v>
+        <v>169.88336374</v>
       </c>
       <c r="I2" t="n">
         <v>10.22730421484596</v>
@@ -548,10 +548,10 @@
         <v>0.005501544431581492</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005501544431581492</v>
+        <v>0.2575856796067603</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2575921603135857</v>
+        <v>35.65025453032664</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.0139351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0139351</v>
+        <v>1.51946332</v>
       </c>
       <c r="H3" t="n">
-        <v>1.51947974</v>
+        <v>171.45638814</v>
       </c>
       <c r="I3" t="n">
         <v>21.74224888951341</v>
@@ -595,10 +595,10 @@
         <v>0.005015516823620078</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005015516823620078</v>
+        <v>0.4563816235617154</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4563682573878631</v>
+        <v>60.62167444470195</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.06004478000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03002234</v>
+        <v>1.31476032</v>
       </c>
       <c r="H4" t="n">
-        <v>1.31476452</v>
+        <v>60.33712061999999</v>
       </c>
       <c r="I4" t="n">
         <v>9.606705031545742</v>
@@ -642,10 +642,10 @@
         <v>0.01276144855767481</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00638081907191051</v>
+        <v>0.2901926646659931</v>
       </c>
       <c r="N4" t="n">
-        <v>0.290200709941362</v>
+        <v>22.75476803659272</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.02425606</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01212814</v>
+        <v>0.7536861799999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7536763200000001</v>
+        <v>48.68516868</v>
       </c>
       <c r="I5" t="n">
         <v>12.66494048287909</v>
@@ -689,10 +689,10 @@
         <v>0.007680809719834531</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003840412722632858</v>
+        <v>0.2075764034850184</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2075917878057472</v>
+        <v>17.96604165128577</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.0895454</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02238622</v>
+        <v>0.5826141199999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5826196</v>
+        <v>16.24644572</v>
       </c>
       <c r="I6" t="n">
         <v>7.110321888262824</v>
@@ -736,10 +736,10 @@
         <v>0.02422709160372227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006056968883501997</v>
+        <v>0.1705166284447882</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1705158663291483</v>
+        <v>7.710043693630528</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.0432118</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01080314</v>
+        <v>0.3537025600000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.35369672</v>
+        <v>12.07943624</v>
       </c>
       <c r="I7" t="n">
         <v>6.988160327978965</v>
@@ -783,10 +783,10 @@
         <v>0.01492127582025774</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003730361904732644</v>
+        <v>0.1064298320441421</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1064305799605691</v>
+        <v>4.768850306221507</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.2827897</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04713168</v>
+        <v>0.42461368</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42461372</v>
+        <v>4.05563942</v>
       </c>
       <c r="I8" t="n">
         <v>2.342381160058712</v>
@@ -830,10 +830,10 @@
         <v>0.08958600309205685</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01493093364584658</v>
+        <v>0.1572723374045257</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1572743395150697</v>
+        <v>2.259023269990147</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.1723099</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02871838</v>
+        <v>0.47369198</v>
       </c>
       <c r="H9" t="n">
-        <v>0.47369058</v>
+        <v>8.272052520000001</v>
       </c>
       <c r="I9" t="n">
         <v>4.171474847677931</v>
@@ -877,10 +877,10 @@
         <v>0.04140911884642409</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006901652613192465</v>
+        <v>0.1169436231843642</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1169423131165863</v>
+        <v>3.776438336769833</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.24019628</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03002462</v>
+        <v>0.2038068</v>
       </c>
       <c r="H10" t="n">
-        <v>0.20380606</v>
+        <v>1.46559084</v>
       </c>
       <c r="I10" t="n">
         <v>1.701437562639052</v>
@@ -924,10 +924,10 @@
         <v>0.07490870266953543</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009363422805195636</v>
+        <v>0.08619550150860913</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08619617237755678</v>
+        <v>0.9145212355313407</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.16281964</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02035266</v>
+        <v>0.26120484</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2612028</v>
+        <v>3.65293844</v>
       </c>
       <c r="I11" t="n">
         <v>4.053007493143697</v>
@@ -971,10 +971,10 @@
         <v>0.04460448276166052</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005575701248562951</v>
+        <v>0.08015625125843905</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08015565077811625</v>
+        <v>2.300968590328717</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.22328316</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0223284</v>
+        <v>0.13002958</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13002918</v>
+        <v>0.80684384</v>
       </c>
       <c r="I12" t="n">
         <v>1.493149352871293</v>
@@ -1018,10 +1018,10 @@
         <v>0.08064555367203165</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008064657266968469</v>
+        <v>0.06834593545933235</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06834517329668209</v>
+        <v>0.6244658429654223</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.135571</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01355742</v>
+        <v>0.14244442</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1424412</v>
+        <v>1.61395626</v>
       </c>
       <c r="I13" t="n">
         <v>3.077079921237563</v>
@@ -1065,10 +1065,10 @@
         <v>0.03713341827661186</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003713151293531858</v>
+        <v>0.04614002941581838</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04614088679499406</v>
+        <v>0.940494734128831</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path_jgr/15x15/new_cu_diffgoal_path_jgr_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal_path_jgr/15x15/new_cu_diffgoal_path_jgr_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
